--- a/web_project_Scrum.xlsx
+++ b/web_project_Scrum.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dawid\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6AFDFED-889A-41E3-9112-A67457523D15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4660F1A-28B7-4994-9165-099FD9CCF00B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5925" yWindow="1605" windowWidth="21750" windowHeight="13590" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="600" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ListOfFeatures" sheetId="1" r:id="rId1"/>
@@ -389,6 +389,9 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -398,9 +401,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1498,10 +1498,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="45" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
+      <c r="B1" s="13"/>
     </row>
     <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
@@ -2649,7 +2649,7 @@
   <dimension ref="A1:N1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2662,22 +2662,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="15"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="16"/>
     </row>
     <row r="2" spans="1:14" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
@@ -2745,15 +2745,11 @@
     </row>
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="B5" s="9"/>
-      <c r="C5" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>30</v>
-      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
@@ -2767,15 +2763,11 @@
     </row>
     <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B6" s="9"/>
-      <c r="C6" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>30</v>
-      </c>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
@@ -2788,15 +2780,12 @@
       <c r="N6" s="6"/>
     </row>
     <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>30</v>
-      </c>
+      <c r="A7" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
@@ -2810,15 +2799,11 @@
     </row>
     <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="B8" s="9"/>
-      <c r="C8" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>30</v>
-      </c>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
@@ -2850,11 +2835,15 @@
     </row>
     <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
+      <c r="C10" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>30</v>
+      </c>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
@@ -2922,11 +2911,15 @@
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
+      <c r="C14" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>30</v>
+      </c>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
@@ -3011,12 +3004,15 @@
       <c r="N18" s="6"/>
     </row>
     <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
+      <c r="A19" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>30</v>
+      </c>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
@@ -3102,11 +3098,15 @@
     </row>
     <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
+      <c r="C24" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>30</v>
+      </c>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
@@ -4188,22 +4188,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="15"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="16"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
@@ -5713,22 +5713,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="15"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="16"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">

--- a/web_project_Scrum.xlsx
+++ b/web_project_Scrum.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dawid\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dawid\Desktop\s\HTML\DawidPopek\src\Project\Sports-Club\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C62B8BF-3B5A-42FE-B50E-890B4244AAD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F489696-0595-47ED-A215-E3E959233E55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2115" yWindow="1365" windowWidth="21750" windowHeight="13590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7005" yWindow="1875" windowWidth="20205" windowHeight="13590" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ListOfFeatures" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="46">
   <si>
     <t>Product Backlog - Project Title (List of your features)</t>
   </si>
@@ -126,9 +126,6 @@
     <t>Task : Make a universal footer</t>
   </si>
   <si>
-    <t>Denis</t>
-  </si>
-  <si>
     <t>Task : Draw a database design</t>
   </si>
   <si>
@@ -166,6 +163,9 @@
   </si>
   <si>
     <t>Task : Create a database schema</t>
+  </si>
+  <si>
+    <t>Taks</t>
   </si>
 </sst>
 </file>
@@ -1484,7 +1484,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
@@ -1510,37 +1510,37 @@
     </row>
     <row r="3" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1551,12 +1551,12 @@
     </row>
     <row r="12" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2649,7 +2649,7 @@
   <dimension ref="A1:N1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2911,11 +2911,11 @@
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>30</v>
@@ -3005,10 +3005,10 @@
     </row>
     <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="11" t="s">
         <v>43</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>44</v>
       </c>
       <c r="D19" s="11" t="s">
         <v>30</v>
@@ -3098,11 +3098,11 @@
     </row>
     <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B24" s="9"/>
       <c r="C24" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D24" s="9" t="s">
         <v>30</v>
@@ -4176,7 +4176,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4187,7 +4189,7 @@
     <col min="5" max="26" width="8.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>21</v>
       </c>
@@ -4205,7 +4207,7 @@
       <c r="M1" s="15"/>
       <c r="N1" s="16"/>
     </row>
-    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
@@ -4249,17 +4251,11 @@
     </row>
     <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="9">
-        <v>2</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>10</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
@@ -4273,14 +4269,10 @@
     </row>
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="9">
-        <v>2</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>24</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
       <c r="D5" s="9"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
@@ -4295,14 +4287,10 @@
     </row>
     <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="9">
-        <v>4</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>25</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
       <c r="D6" s="9"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
@@ -4317,14 +4305,10 @@
     </row>
     <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="9">
-        <v>2</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>26</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
       <c r="D7" s="9"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>

--- a/web_project_Scrum.xlsx
+++ b/web_project_Scrum.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dawid\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dawid\Desktop\s\HTML\DawidPopek\src\Project\Sports-Club-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4660F1A-28B7-4994-9165-099FD9CCF00B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE20B35A-CC85-4E2B-8E0B-573322D64AC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="600" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="600" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ListOfFeatures" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="49">
   <si>
     <t>Product Backlog - Project Title (List of your features)</t>
   </si>
@@ -54,22 +54,7 @@
     <t>User Story/ Feature #1</t>
   </si>
   <si>
-    <t>Task : Make a list of categories of products</t>
-  </si>
-  <si>
-    <t>Pekka</t>
-  </si>
-  <si>
     <t>Ongoing</t>
-  </si>
-  <si>
-    <t>Task : List products based on categories</t>
-  </si>
-  <si>
-    <t>Task : Search products</t>
-  </si>
-  <si>
-    <t>Task: Display products</t>
   </si>
   <si>
     <t>User Story #2</t>
@@ -102,15 +87,6 @@
     <t>User Story #1</t>
   </si>
   <si>
-    <t>Juha</t>
-  </si>
-  <si>
-    <t>Johanna</t>
-  </si>
-  <si>
-    <t>Markku</t>
-  </si>
-  <si>
     <t>Sprint Backlog : Sprint 3 (Feb 21 - Feb 25)</t>
   </si>
   <si>
@@ -124,9 +100,6 @@
   </si>
   <si>
     <t>Task : Make a universal footer</t>
-  </si>
-  <si>
-    <t>Denis</t>
   </si>
   <si>
     <t>Task : Draw a database design</t>
@@ -166,6 +139,42 @@
   </si>
   <si>
     <t>Task : Create a database schema</t>
+  </si>
+  <si>
+    <t>Dawid, Denis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dawid </t>
+  </si>
+  <si>
+    <t>Task Design page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                      MEMBERSHIP PAYMENT SITE</t>
+  </si>
+  <si>
+    <t>Dawid,Denis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Task Create </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Task Make a JS animation </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                  MEMBERSHIP PAYMENT SITE</t>
+  </si>
+  <si>
+    <t>Task Make a payment form</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Task Attach database </t>
+  </si>
+  <si>
+    <t>Task form restrictions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Task Promo code implementation </t>
   </si>
 </sst>
 </file>
@@ -1510,37 +1519,37 @@
     </row>
     <row r="3" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1551,12 +1560,12 @@
     </row>
     <row r="12" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2648,8 +2657,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2723,14 +2732,14 @@
     </row>
     <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B4" s="9"/>
       <c r="C4" s="9" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
@@ -2745,11 +2754,15 @@
     </row>
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
+      <c r="C5" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>22</v>
+      </c>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
@@ -2763,11 +2776,15 @@
     </row>
     <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
+      <c r="C6" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>22</v>
+      </c>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
@@ -2780,12 +2797,15 @@
       <c r="N6" s="6"/>
     </row>
     <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
+      <c r="A7" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
@@ -2799,11 +2819,15 @@
     </row>
     <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
+      <c r="C8" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>22</v>
+      </c>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
@@ -2817,7 +2841,7 @@
     </row>
     <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B9" s="7"/>
       <c r="C9" s="8"/>
@@ -2835,15 +2859,11 @@
     </row>
     <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="B10" s="9"/>
-      <c r="C10" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>30</v>
-      </c>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
@@ -2857,7 +2877,7 @@
     </row>
     <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -2875,7 +2895,7 @@
     </row>
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -2893,7 +2913,7 @@
     </row>
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B13" s="7"/>
       <c r="C13" s="8"/>
@@ -2911,15 +2931,11 @@
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="B14" s="9"/>
-      <c r="C14" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>30</v>
-      </c>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
@@ -2933,7 +2949,7 @@
     </row>
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -2951,7 +2967,7 @@
     </row>
     <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -2969,7 +2985,7 @@
     </row>
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
@@ -2987,7 +3003,7 @@
     </row>
     <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B18" s="7"/>
       <c r="C18" s="8"/>
@@ -3004,15 +3020,12 @@
       <c r="N18" s="6"/>
     </row>
     <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>30</v>
-      </c>
+      <c r="A19" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
@@ -3026,7 +3039,7 @@
     </row>
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
@@ -3044,7 +3057,7 @@
     </row>
     <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
@@ -3062,7 +3075,7 @@
     </row>
     <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
@@ -3080,7 +3093,7 @@
     </row>
     <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B23" s="7"/>
       <c r="C23" s="8"/>
@@ -3098,15 +3111,11 @@
     </row>
     <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="B24" s="9"/>
-      <c r="C24" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>30</v>
-      </c>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
@@ -3120,7 +3129,7 @@
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
@@ -3138,7 +3147,7 @@
     </row>
     <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
@@ -3156,7 +3165,7 @@
     </row>
     <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
@@ -3174,7 +3183,7 @@
     </row>
     <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
@@ -4176,7 +4185,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4189,7 +4200,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
@@ -4210,7 +4221,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>5</v>
@@ -4231,7 +4242,7 @@
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="8"/>
@@ -4249,17 +4260,13 @@
     </row>
     <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="9">
-        <v>2</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="B4" s="9"/>
       <c r="C4" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>10</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="D4" s="9"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
@@ -4273,15 +4280,15 @@
     </row>
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="9">
-        <v>2</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="B5" s="9"/>
       <c r="C5" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="9"/>
+        <v>41</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>22</v>
+      </c>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
@@ -4295,15 +4302,15 @@
     </row>
     <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="9">
-        <v>4</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="B6" s="9"/>
       <c r="C6" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="9"/>
+        <v>21</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>22</v>
+      </c>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
@@ -4317,15 +4324,15 @@
     </row>
     <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="9">
-        <v>2</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="B7" s="9"/>
       <c r="C7" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="9"/>
+        <v>21</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>22</v>
+      </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
@@ -4339,7 +4346,7 @@
     </row>
     <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="8"/>
@@ -4357,7 +4364,7 @@
     </row>
     <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -4375,7 +4382,7 @@
     </row>
     <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -4393,7 +4400,7 @@
     </row>
     <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -4411,7 +4418,7 @@
     </row>
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -4429,7 +4436,7 @@
     </row>
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B13" s="7"/>
       <c r="C13" s="8"/>
@@ -4447,7 +4454,7 @@
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -4465,7 +4472,7 @@
     </row>
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -4483,7 +4490,7 @@
     </row>
     <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -4501,7 +4508,7 @@
     </row>
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
@@ -4519,7 +4526,7 @@
     </row>
     <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B18" s="7"/>
       <c r="C18" s="8"/>
@@ -4537,7 +4544,7 @@
     </row>
     <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
@@ -4555,7 +4562,7 @@
     </row>
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
@@ -4573,7 +4580,7 @@
     </row>
     <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
@@ -4591,7 +4598,7 @@
     </row>
     <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
@@ -4609,7 +4616,7 @@
     </row>
     <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B23" s="7"/>
       <c r="C23" s="8"/>
@@ -4627,7 +4634,7 @@
     </row>
     <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
@@ -4645,7 +4652,7 @@
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
@@ -4663,7 +4670,7 @@
     </row>
     <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
@@ -4681,7 +4688,7 @@
     </row>
     <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
@@ -4699,7 +4706,7 @@
     </row>
     <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
@@ -5701,7 +5708,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:N1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5714,7 +5723,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
@@ -5735,7 +5744,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>5</v>
@@ -5756,7 +5765,7 @@
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="8"/>
@@ -5774,17 +5783,13 @@
     </row>
     <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="9">
-        <v>2</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="B4" s="9"/>
       <c r="C4" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>10</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="D4" s="9"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
@@ -5798,15 +5803,15 @@
     </row>
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="9">
-        <v>2</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="B5" s="9"/>
       <c r="C5" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="9"/>
+        <v>21</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>22</v>
+      </c>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
@@ -5820,15 +5825,15 @@
     </row>
     <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="9">
-        <v>4</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="B6" s="9"/>
       <c r="C6" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="9"/>
+        <v>38</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>22</v>
+      </c>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
@@ -5842,15 +5847,15 @@
     </row>
     <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="9">
-        <v>2</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="B7" s="9"/>
       <c r="C7" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="9"/>
+        <v>21</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>8</v>
+      </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
@@ -5863,12 +5868,16 @@
       <c r="N7" s="6"/>
     </row>
     <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
+      <c r="A8" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>8</v>
+      </c>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
@@ -5881,12 +5890,12 @@
       <c r="N8" s="6"/>
     </row>
     <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
+      <c r="A9" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
@@ -5900,7 +5909,7 @@
     </row>
     <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -5918,7 +5927,7 @@
     </row>
     <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -5936,7 +5945,7 @@
     </row>
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -5954,7 +5963,7 @@
     </row>
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B13" s="7"/>
       <c r="C13" s="8"/>
@@ -5972,7 +5981,7 @@
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -5990,7 +5999,7 @@
     </row>
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -6008,7 +6017,7 @@
     </row>
     <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -6026,7 +6035,7 @@
     </row>
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
@@ -6044,7 +6053,7 @@
     </row>
     <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B18" s="7"/>
       <c r="C18" s="8"/>
@@ -6062,7 +6071,7 @@
     </row>
     <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
@@ -6080,7 +6089,7 @@
     </row>
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
@@ -6098,7 +6107,7 @@
     </row>
     <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
@@ -6116,7 +6125,7 @@
     </row>
     <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
@@ -6134,7 +6143,7 @@
     </row>
     <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B23" s="7"/>
       <c r="C23" s="8"/>
@@ -6152,7 +6161,7 @@
     </row>
     <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
@@ -6170,7 +6179,7 @@
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
@@ -6188,7 +6197,7 @@
     </row>
     <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
@@ -6206,7 +6215,7 @@
     </row>
     <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
@@ -6224,7 +6233,7 @@
     </row>
     <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>

--- a/web_project_Scrum.xlsx
+++ b/web_project_Scrum.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Denis Fedulov\OneDrive - Hämeen ammattikorkeakoulu\Työpöytä\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HAMK\2nd Semester 10.01.2022\Web-Prog\Imran\src\Sports-Club\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A4E37426-2BB8-4313-A72D-07F0BED1958C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74D7782A-27BC-43F1-8AB4-81918F0F7E55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ListOfFeatures" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="66">
   <si>
     <t>Product Backlog - Project Title (List of your features)</t>
   </si>
@@ -187,6 +187,45 @@
   </si>
   <si>
     <t>USER REGISTRATION SYSTEM</t>
+  </si>
+  <si>
+    <t>feedback through contact us</t>
+  </si>
+  <si>
+    <t>java validating of form fields  on contact form</t>
+  </si>
+  <si>
+    <t>contact us page</t>
+  </si>
+  <si>
+    <t>done</t>
+  </si>
+  <si>
+    <t>Imran</t>
+  </si>
+  <si>
+    <t>Contact us page</t>
+  </si>
+  <si>
+    <t>Feedback through contact form</t>
+  </si>
+  <si>
+    <t>ongoing</t>
+  </si>
+  <si>
+    <t>Javascript validation on form</t>
+  </si>
+  <si>
+    <t>links in the site</t>
+  </si>
+  <si>
+    <t>Buttons</t>
+  </si>
+  <si>
+    <t>Privacy policy, terms, help</t>
+  </si>
+  <si>
+    <t>working</t>
   </si>
 </sst>
 </file>
@@ -398,7 +437,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -425,15 +464,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -445,6 +475,18 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1529,8 +1571,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B1000"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView topLeftCell="A6" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1543,10 +1585,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="45" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
+      <c r="B1" s="17"/>
     </row>
     <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
@@ -1611,10 +1653,14 @@
       <c r="A15" s="2"/>
     </row>
     <row r="16" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="2"/>
+      <c r="A16" s="2" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="17" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="2"/>
+      <c r="A17" s="2" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="18" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
@@ -2693,7 +2739,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
@@ -2707,22 +2753,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="16"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="20"/>
     </row>
     <row r="2" spans="1:14" ht="68.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -4222,7 +4268,7 @@
   <dimension ref="A1:N1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4235,22 +4281,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="16"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="20"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -4399,8 +4445,8 @@
       <c r="N8" s="6"/>
     </row>
     <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="9" t="s">
-        <v>10</v>
+      <c r="A9" s="21" t="s">
+        <v>55</v>
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -4418,11 +4464,15 @@
     </row>
     <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
+      <c r="C10" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>56</v>
+      </c>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
@@ -4489,8 +4539,8 @@
       <c r="N13" s="6"/>
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="9" t="s">
-        <v>11</v>
+      <c r="A14" s="21" t="s">
+        <v>62</v>
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -4508,11 +4558,15 @@
     </row>
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
+      <c r="C15" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>56</v>
+      </c>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
@@ -4526,11 +4580,15 @@
     </row>
     <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
-        <v>10</v>
+        <v>64</v>
       </c>
       <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
+      <c r="C16" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>65</v>
+      </c>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
@@ -5744,8 +5802,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:N1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5758,22 +5816,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="16"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="20"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -5944,14 +6002,14 @@
       <c r="N9" s="6"/>
     </row>
     <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="20" t="s">
+      <c r="B10" s="12"/>
+      <c r="C10" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="D10" s="18"/>
+      <c r="D10" s="13"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
@@ -6048,8 +6106,8 @@
       <c r="N14" s="6"/>
     </row>
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="9" t="s">
-        <v>11</v>
+      <c r="A15" s="21" t="s">
+        <v>58</v>
       </c>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -6067,11 +6125,15 @@
     </row>
     <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
+      <c r="C16" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>60</v>
+      </c>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>

--- a/web_project_Scrum.xlsx
+++ b/web_project_Scrum.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HAMK\2nd Semester 10.01.2022\Web-Prog\Imran\src\Sports-Club\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HAMK\2nd Semester 10.01.2022\Web-Prog\Imran\src\Team11\Sports-Club\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74D7782A-27BC-43F1-8AB4-81918F0F7E55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FC021A6-F35A-49C6-BFD4-474B5BB73747}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ListOfFeatures" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="65">
   <si>
     <t>Product Backlog - Project Title (List of your features)</t>
   </si>
@@ -195,9 +195,6 @@
     <t>java validating of form fields  on contact form</t>
   </si>
   <si>
-    <t>contact us page</t>
-  </si>
-  <si>
     <t>done</t>
   </si>
   <si>
@@ -205,15 +202,6 @@
   </si>
   <si>
     <t>Contact us page</t>
-  </si>
-  <si>
-    <t>Feedback through contact form</t>
-  </si>
-  <si>
-    <t>ongoing</t>
-  </si>
-  <si>
-    <t>Javascript validation on form</t>
   </si>
   <si>
     <t>links in the site</t>
@@ -226,6 +214,15 @@
   </si>
   <si>
     <t>working</t>
+  </si>
+  <si>
+    <t>PHP mail function on local host</t>
+  </si>
+  <si>
+    <t>Feed back through contact us form (upon sending information is being stored in database)</t>
+  </si>
+  <si>
+    <t>Javascript validation on contact form fields</t>
   </si>
 </sst>
 </file>
@@ -476,6 +473,9 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -485,9 +485,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1572,7 +1569,7 @@
   <dimension ref="A1:B1000"/>
   <sheetViews>
     <sheetView topLeftCell="A6" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1585,10 +1582,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="45" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
+      <c r="B1" s="18"/>
     </row>
     <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
@@ -2739,7 +2736,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
@@ -2753,22 +2750,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="20"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="21"/>
     </row>
     <row r="2" spans="1:14" ht="68.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -4267,8 +4264,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4281,22 +4278,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="20"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="21"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -4445,11 +4442,13 @@
       <c r="N8" s="6"/>
     </row>
     <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="21" t="s">
-        <v>55</v>
+      <c r="A9" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
+      <c r="C9" s="9" t="s">
+        <v>56</v>
+      </c>
       <c r="D9" s="9"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
@@ -4468,10 +4467,10 @@
       </c>
       <c r="B10" s="9"/>
       <c r="C10" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
@@ -4486,11 +4485,15 @@
     </row>
     <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
+      <c r="C11" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>55</v>
+      </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
@@ -4539,8 +4542,8 @@
       <c r="N13" s="6"/>
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="21" t="s">
-        <v>62</v>
+      <c r="A14" s="9" t="s">
+        <v>10</v>
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -4558,15 +4561,11 @@
     </row>
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
-        <v>63</v>
+        <v>10</v>
       </c>
       <c r="B15" s="9"/>
-      <c r="C15" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>56</v>
-      </c>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
@@ -4580,15 +4579,11 @@
     </row>
     <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
-        <v>64</v>
+        <v>10</v>
       </c>
       <c r="B16" s="9"/>
-      <c r="C16" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>65</v>
-      </c>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
@@ -4602,7 +4597,7 @@
     </row>
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
@@ -5800,10 +5795,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:N1001"/>
+  <dimension ref="A1:N1002"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5816,22 +5811,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="20"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="21"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -6106,11 +6101,13 @@
       <c r="N14" s="6"/>
     </row>
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="21" t="s">
-        <v>58</v>
+      <c r="A15" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
+      <c r="C15" s="9" t="s">
+        <v>56</v>
+      </c>
       <c r="D15" s="9"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
@@ -6123,16 +6120,16 @@
       <c r="M15" s="6"/>
       <c r="N15" s="6"/>
     </row>
-    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B16" s="9"/>
       <c r="C16" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
@@ -6147,11 +6144,15 @@
     </row>
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
-        <v>10</v>
+        <v>64</v>
       </c>
       <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
+      <c r="C17" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>55</v>
+      </c>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
@@ -6165,11 +6166,15 @@
     </row>
     <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
+      <c r="C18" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>61</v>
+      </c>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
@@ -6182,12 +6187,12 @@
       <c r="N18" s="6"/>
     </row>
     <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
+      <c r="A19" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
@@ -6200,12 +6205,12 @@
       <c r="N19" s="6"/>
     </row>
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
+      <c r="A20" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
@@ -6272,12 +6277,12 @@
       <c r="N23" s="6"/>
     </row>
     <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B24" s="7"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
+      <c r="A24" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
@@ -6290,12 +6295,12 @@
       <c r="N24" s="6"/>
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
+      <c r="A25" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
@@ -6309,7 +6314,7 @@
     </row>
     <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
@@ -6362,12 +6367,12 @@
       <c r="N28" s="6"/>
     </row>
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
+      <c r="A29" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
@@ -6379,7 +6384,24 @@
       <c r="M29" s="6"/>
       <c r="N29" s="6"/>
     </row>
-    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="6"/>
+      <c r="N30" s="6"/>
+    </row>
     <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -7351,6 +7373,7 @@
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="1001" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1002" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:N1"/>

--- a/web_project_Scrum.xlsx
+++ b/web_project_Scrum.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HAMK\2nd Semester 10.01.2022\Web-Prog\Imran\src\Team11\Sports-Club\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FC021A6-F35A-49C6-BFD4-474B5BB73747}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B2A3AA0-BD30-47AF-98A0-E71B72CFB45C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ListOfFeatures" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="64">
   <si>
     <t>Product Backlog - Project Title (List of your features)</t>
   </si>
@@ -213,16 +213,15 @@
     <t>Privacy policy, terms, help</t>
   </si>
   <si>
-    <t>working</t>
+    <t>Javascript validation on contact form fields</t>
   </si>
   <si>
-    <t>PHP mail function on local host</t>
+    <t>PHP mailer is added and configured with gmail.</t>
   </si>
   <si>
-    <t>Feed back through contact us form (upon sending information is being stored in database)</t>
-  </si>
-  <si>
-    <t>Javascript validation on contact form fields</t>
+    <t>Feed back through contact us form, upon clicking send:
+1. information is being stored in database.
+2. email is also being received in gmail.</t>
   </si>
 </sst>
 </file>
@@ -4264,7 +4263,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -5795,10 +5794,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:N1002"/>
+  <dimension ref="A1:N1001"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6120,9 +6119,9 @@
       <c r="M15" s="6"/>
       <c r="N15" s="6"/>
     </row>
-    <row r="16" spans="1:14" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B16" s="9"/>
       <c r="C16" s="9" t="s">
@@ -6142,9 +6141,9 @@
       <c r="M16" s="6"/>
       <c r="N16" s="6"/>
     </row>
-    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B17" s="9"/>
       <c r="C17" s="9" t="s">
@@ -6164,16 +6163,16 @@
       <c r="M17" s="6"/>
       <c r="N17" s="6"/>
     </row>
-    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B18" s="9"/>
       <c r="C18" s="9" t="s">
         <v>56</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
@@ -6187,12 +6186,12 @@
       <c r="N18" s="6"/>
     </row>
     <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
+      <c r="A19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
@@ -6205,12 +6204,12 @@
       <c r="N19" s="6"/>
     </row>
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
+      <c r="A20" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
@@ -6277,12 +6276,12 @@
       <c r="N23" s="6"/>
     </row>
     <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
+      <c r="A24" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
@@ -6295,12 +6294,12 @@
       <c r="N24" s="6"/>
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B25" s="7"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
+      <c r="A25" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
@@ -6314,7 +6313,7 @@
     </row>
     <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
@@ -6367,12 +6366,12 @@
       <c r="N28" s="6"/>
     </row>
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
+      <c r="A29" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
@@ -6384,24 +6383,7 @@
       <c r="M29" s="6"/>
       <c r="N29" s="6"/>
     </row>
-    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="6"/>
-      <c r="K30" s="6"/>
-      <c r="L30" s="6"/>
-      <c r="M30" s="6"/>
-      <c r="N30" s="6"/>
-    </row>
+    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -7373,7 +7355,6 @@
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="1001" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1002" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:N1"/>

--- a/web_project_Scrum.xlsx
+++ b/web_project_Scrum.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HAMK\2nd Semester 10.01.2022\Web-Prog\Imran\src\Team11\Sports-Club\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Denis Fedulov\OneDrive - Hämeen ammattikorkeakoulu\Työpöytä\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FC021A6-F35A-49C6-BFD4-474B5BB73747}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CE06A6D0-C44A-4EE0-B3CC-D4AB5EC5B2D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ListOfFeatures" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="65">
   <si>
     <t>Product Backlog - Project Title (List of your features)</t>
   </si>
@@ -213,16 +213,18 @@
     <t>Privacy policy, terms, help</t>
   </si>
   <si>
-    <t>working</t>
+    <t>Javascript validation on contact form fields</t>
   </si>
   <si>
-    <t>PHP mail function on local host</t>
+    <t>PHP mailer is added and configured with gmail.</t>
   </si>
   <si>
-    <t>Feed back through contact us form (upon sending information is being stored in database)</t>
+    <t>Feed back through contact us form, upon clicking send:
+1. information is being stored in database.
+2. email is also being received in gmail.</t>
   </si>
   <si>
-    <t>Javascript validation on contact form fields</t>
+    <t>Only logged in users can buy membeships</t>
   </si>
 </sst>
 </file>
@@ -4264,7 +4266,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -5797,8 +5799,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:N1002"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6062,14 +6064,14 @@
     </row>
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="B13" s="9"/>
       <c r="C13" s="9" t="s">
         <v>49</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
@@ -6083,12 +6085,16 @@
       <c r="N13" s="6"/>
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
+      <c r="A14" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>22</v>
+      </c>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
@@ -6101,14 +6107,12 @@
       <c r="N14" s="6"/>
     </row>
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="D15" s="9"/>
+      <c r="A15" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
@@ -6120,17 +6124,15 @@
       <c r="M15" s="6"/>
       <c r="N15" s="6"/>
     </row>
-    <row r="16" spans="1:14" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="9" t="s">
-        <v>63</v>
+    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="B16" s="9"/>
       <c r="C16" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="D16" s="9" t="s">
-        <v>55</v>
-      </c>
+      <c r="D16" s="9"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
@@ -6144,7 +6146,7 @@
     </row>
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B17" s="9"/>
       <c r="C17" s="9" t="s">
@@ -6164,7 +6166,7 @@
       <c r="M17" s="6"/>
       <c r="N17" s="6"/>
     </row>
-    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
         <v>62</v>
       </c>
@@ -6173,7 +6175,7 @@
         <v>56</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
@@ -6186,13 +6188,17 @@
       <c r="M18" s="6"/>
       <c r="N18" s="6"/>
     </row>
-    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
+      <c r="C19" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>55</v>
+      </c>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
